--- a/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
+++ b/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:39:16+00:00</t>
+    <t>2025-08-01T06:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
+++ b/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:15:10+00:00</t>
+    <t>2025-08-11T13:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
+++ b/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:26+00:00</t>
+    <t>2025-08-11T13:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
+++ b/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:41+00:00</t>
+    <t>2025-08-11T17:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
+++ b/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T17:10:25+00:00</t>
+    <t>2025-09-16T13:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
+++ b/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:34:10+00:00</t>
+    <t>2025-09-18T08:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
+++ b/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T08:13:56+00:00</t>
+    <t>2025-09-18T15:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
+++ b/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:39:47+00:00</t>
+    <t>2025-09-18T15:54:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
+++ b/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:54:11+00:00</t>
+    <t>2025-10-08T12:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
+++ b/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:14:02+00:00</t>
+    <t>2025-10-08T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
+++ b/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:28:03+00:00</t>
+    <t>2025-10-08T12:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
+++ b/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:56:25+00:00</t>
+    <t>2025-10-08T13:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
+++ b/main/ig/StructureDefinition-as-ext-practitioner-authorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T13:03:27+00:00</t>
+    <t>2025-10-10T07:08:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
